--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\285\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07318D15-5BA2-445B-91BD-BB1C8FD468D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DB9825-1AE8-4EA0-A1C6-4B0268D0B738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C98F22BA-4AC9-4F35-B8B3-DBE288075706}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Testcases</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Success</t>
+  </si>
+  <si>
+    <t>Default Strategy Ethical selected</t>
   </si>
 </sst>
 </file>
@@ -218,15 +221,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -245,6 +239,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,39 +576,39 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="35.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -613,7 +616,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -622,7 +625,7 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -630,7 +633,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -639,7 +642,7 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -647,16 +650,16 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -664,7 +667,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -673,7 +676,7 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -681,7 +684,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -690,7 +693,7 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -698,7 +701,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -707,7 +710,7 @@
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -715,7 +718,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -724,7 +727,7 @@
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -732,7 +735,7 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -741,7 +744,7 @@
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -749,7 +752,7 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -758,7 +761,7 @@
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -766,7 +769,7 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -775,7 +778,7 @@
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
